--- a/biology/Botanique/Coffea_excelsa/Coffea_excelsa.xlsx
+++ b/biology/Botanique/Coffea_excelsa/Coffea_excelsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coffea excelsa est une espèce de plantes de la famille des Rubiaceae[1], découverte en 1902 en Centrafrique, dont la culture s’est étendue rapidement au Cameroun, en Côte d’Ivoire et en Guinée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coffea excelsa est une espèce de plantes de la famille des Rubiaceae, découverte en 1902 en Centrafrique, dont la culture s’est étendue rapidement au Cameroun, en Côte d’Ivoire et en Guinée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de caféier est réputée pour ses rendements importants et rapides et son goût, peu éloigné de celui de l'arabica.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de Centrafrique mais est également cultivée au Cameroun, en Côte d'Ivoire et en Guinée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de Centrafrique mais est également cultivée au Cameroun, en Côte d'Ivoire et en Guinée.
 </t>
         </is>
       </c>
